--- a/devel/Type source files/Sample_types.xlsx
+++ b/devel/Type source files/Sample_types.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anette\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anette\Dropbox\Type source files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>AMM</t>
   </si>
@@ -207,23 +207,52 @@
   </si>
   <si>
     <t>Mesozooplankton taxonomy</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Macrozooplankton taxonomy</t>
+  </si>
+  <si>
+    <t>MZT</t>
+  </si>
+  <si>
+    <t>GEN</t>
+  </si>
+  <si>
+    <t>Genetics</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>Stable isotopes</t>
+  </si>
+  <si>
+    <t>ECO</t>
+  </si>
+  <si>
+    <t>Ecotoxicology</t>
+  </si>
+  <si>
+    <t>LIP</t>
+  </si>
+  <si>
+    <t>Lipids</t>
+  </si>
+  <si>
+    <t>Bacteria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -239,6 +268,19 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -264,13 +306,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,269 +594,319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="28" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:B38">
-    <sortCondition ref="A2:A38"/>
+  <sortState ref="A2:C36">
+    <sortCondition ref="B2:B36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/devel/Type source files/Sample_types.xlsx
+++ b/devel/Type source files/Sample_types.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anette\Dropbox\Type source files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikko\Dropbox\Workstuff\R\R packages\MarineDatabase\devel\Type source files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>AMM</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Zooplankton physiology</t>
   </si>
   <si>
-    <t>δ18 Oxygen</t>
-  </si>
-  <si>
     <t>SWN</t>
   </si>
   <si>
@@ -243,6 +240,24 @@
   </si>
   <si>
     <t>Bacteria</t>
+  </si>
+  <si>
+    <t>gear_type</t>
+  </si>
+  <si>
+    <t>CTM</t>
+  </si>
+  <si>
+    <t>Ship CTD</t>
+  </si>
+  <si>
+    <t>Hydrobios mini CTD</t>
+  </si>
+  <si>
+    <t>d18 Oxygen</t>
+  </si>
+  <si>
+    <t>Swim-net</t>
   </si>
 </sst>
 </file>
@@ -594,317 +609,366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.1796875" style="3"/>
     <col min="2" max="2" width="28" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="28" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="B21" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="B34" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="B37" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="C37" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A2:C36">
-    <sortCondition ref="B2:B36"/>
+  <sortState ref="A2:D37">
+    <sortCondition ref="A2:A37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/devel/Type source files/Sample_types.xlsx
+++ b/devel/Type source files/Sample_types.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
   <si>
     <t>AMM</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>Swim-net</t>
+  </si>
+  <si>
+    <t>Niskin bottle</t>
   </si>
 </sst>
 </file>
@@ -611,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -847,7 +850,9 @@
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">

--- a/devel/Type source files/Sample_types.xlsx
+++ b/devel/Type source files/Sample_types.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikko\Dropbox\Workstuff\R\R packages\MarineDatabase\devel\Type source files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anette\Dropbox\Type source files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="120">
   <si>
     <t>AMM</t>
   </si>
@@ -179,9 +179,6 @@
     <t>SWN</t>
   </si>
   <si>
-    <t>Zooplankton taxonomy; swim-net</t>
-  </si>
-  <si>
     <t>HAN</t>
   </si>
   <si>
@@ -257,17 +254,163 @@
     <t>d18 Oxygen</t>
   </si>
   <si>
-    <t>Swim-net</t>
-  </si>
-  <si>
-    <t>Niskin bottle</t>
+    <t>parameters</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>Ammonium; Urea</t>
+  </si>
+  <si>
+    <t>mmol/m3</t>
+  </si>
+  <si>
+    <t>Chlorophyll a; Phaeophytin</t>
+  </si>
+  <si>
+    <t>NO2; NO3; NO2+NO3; PO4; Si(OH)4</t>
+  </si>
+  <si>
+    <t>ind/m3</t>
+  </si>
+  <si>
+    <t>POC; PON</t>
+  </si>
+  <si>
+    <t>mg/m3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MIK 1500 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>µ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.8000000000000007"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+  </si>
+  <si>
+    <t>WP2 64 μm; WP2 150 µm; WP2 200 µm; WP2 500 µm; WP3 1000 μm;  Multinet 200 µm; Multinet 64 µm</t>
+  </si>
+  <si>
+    <t>Zooplankton taxonomy</t>
+  </si>
+  <si>
+    <t>Swim-net 200 µm</t>
+  </si>
+  <si>
+    <t>All gear</t>
+  </si>
+  <si>
+    <t>WP2 64 μm; WP2 150 µm; WP2 200 µm; WP2 500 µm; WP3 1000 μm;  Multinet 200 µm; Multinet 64 µm; MIK-net 1500 µm</t>
+  </si>
+  <si>
+    <t>Niskin bottle; Ice corer 14 cm; Ice corer 9 cm; Bucket; Bottle ; Go-Flo</t>
+  </si>
+  <si>
+    <t>Ice corer 14 cm; Ice corer 9 cm; Suction pump</t>
+  </si>
+  <si>
+    <t>Suction pump</t>
+  </si>
+  <si>
+    <t>Niskin bottle; Bucket; Go-Flo</t>
+  </si>
+  <si>
+    <t>O18</t>
+  </si>
+  <si>
+    <t>Iodine</t>
+  </si>
+  <si>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>HPLC</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>Oceanography</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Biogeochemistry</t>
+  </si>
+  <si>
+    <t>Taxonomy / Abundance</t>
+  </si>
+  <si>
+    <t>Bsi; Bsi</t>
+  </si>
+  <si>
+    <t>POC/N; POC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abundance (Mesooplankton taxonomy; Macrozooplankton taxonomy; Phytoplankton taxonomy; Ice algal taxonomy; Ice fauna taxonomy; </t>
+  </si>
+  <si>
+    <t>abundance (same as above)</t>
+  </si>
+  <si>
+    <t>taxonomy (most likely Phytoplankton taxonomy</t>
+  </si>
+  <si>
+    <t>taxonomy; phyto tax</t>
+  </si>
+  <si>
+    <t>lipid pictures; Pictures; Picture; lipid</t>
+  </si>
+  <si>
+    <t>experiments</t>
+  </si>
+  <si>
+    <t>Chlorophyll; Chl a/Phaeopigments</t>
+  </si>
+  <si>
+    <t>Ice algae</t>
+  </si>
+  <si>
+    <t>OA experiment</t>
+  </si>
+  <si>
+    <t>abundance/biomass (same as above)</t>
+  </si>
+  <si>
+    <t>dietary analyse</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>sample-type_group (CONRAD)</t>
+  </si>
+  <si>
+    <t>replace with existing "sample type" i DB (CONRAD)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +446,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8.8000000000000007"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -324,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -332,6 +535,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,368 +832,681 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H40" sqref="H40:H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="3"/>
-    <col min="2" max="2" width="28" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="3"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="31.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="60.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="124.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C1" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="4"/>
+      <c r="D6" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="4"/>
+      <c r="D9" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="4"/>
+      <c r="D10" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="D12" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="4"/>
+      <c r="D13" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="C23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="4"/>
+      <c r="D29" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="G30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="C32" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4"/>
+      <c r="D33" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="B34" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H40" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H41" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H42" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H43" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H44" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H46" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H47" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H48" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H49" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H50" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H51" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D37">
-    <sortCondition ref="A2:A37"/>
+  <sortState ref="A2:H37">
+    <sortCondition ref="B2:B37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/devel/Type source files/Sample_types.xlsx
+++ b/devel/Type source files/Sample_types.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anette\Dropbox\Type source files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="2370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="instructions for Conrad" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="119">
   <si>
     <t>AMM</t>
   </si>
@@ -313,9 +312,6 @@
     <t>Swim-net 200 µm</t>
   </si>
   <si>
-    <t>All gear</t>
-  </si>
-  <si>
     <t>WP2 64 μm; WP2 150 µm; WP2 200 µm; WP2 500 µm; WP3 1000 μm;  Multinet 200 µm; Multinet 64 µm; MIK-net 1500 µm</t>
   </si>
   <si>
@@ -410,7 +406,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,6 +502,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -524,8 +536,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -553,7 +567,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -612,7 +628,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -647,7 +663,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -824,7 +840,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -832,26 +848,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40:H51"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="31.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="60.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="3"/>
+    <col min="2" max="2" width="31.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="60.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="124.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="7" max="7" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="124.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="5" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -859,7 +875,7 @@
         <v>56</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>71</v>
@@ -874,10 +890,10 @@
         <v>77</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -885,10 +901,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>78</v>
@@ -897,10 +913,10 @@
         <v>79</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -909,10 +925,10 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -920,10 +936,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>5</v>
@@ -932,10 +948,10 @@
         <v>79</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -944,10 +960,10 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -956,10 +972,10 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -973,10 +989,10 @@
         <v>73</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>72</v>
       </c>
@@ -990,7 +1006,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>57</v>
       </c>
@@ -999,13 +1015,13 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1014,13 +1030,13 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -1028,13 +1044,13 @@
         <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1043,10 +1059,10 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="10" t="s">
         <v>66</v>
       </c>
@@ -1055,10 +1071,10 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
@@ -1066,16 +1082,16 @@
         <v>20</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1084,10 +1100,10 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
         <v>62</v>
       </c>
@@ -1097,14 +1113,12 @@
       <c r="C16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>89</v>
-      </c>
+      <c r="D16" s="17"/>
       <c r="H16" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>51</v>
       </c>
@@ -1112,7 +1126,7 @@
         <v>52</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>52</v>
@@ -1121,7 +1135,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
@@ -1129,16 +1143,16 @@
         <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
@@ -1146,19 +1160,19 @@
         <v>26</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>82</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
@@ -1166,16 +1180,16 @@
         <v>28</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
         <v>68</v>
       </c>
@@ -1183,16 +1197,14 @@
         <v>69</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>89</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D21" s="17"/>
       <c r="H21" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
         <v>61</v>
       </c>
@@ -1200,7 +1212,7 @@
         <v>60</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>85</v>
@@ -1209,7 +1221,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
@@ -1217,13 +1229,13 @@
         <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="4" t="s">
         <v>47</v>
       </c>
@@ -1231,7 +1243,7 @@
         <v>58</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>86</v>
@@ -1240,7 +1252,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -1249,10 +1261,10 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
@@ -1260,16 +1272,16 @@
         <v>34</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="4" t="s">
         <v>35</v>
       </c>
@@ -1277,13 +1289,13 @@
         <v>36</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="4" t="s">
         <v>37</v>
       </c>
@@ -1291,10 +1303,10 @@
         <v>38</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>81</v>
@@ -1303,7 +1315,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
@@ -1312,10 +1324,10 @@
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="4" t="s">
         <v>43</v>
       </c>
@@ -1323,17 +1335,17 @@
         <v>44</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D30" s="15"/>
       <c r="G30" s="3" t="s">
         <v>82</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
@@ -1341,10 +1353,10 @@
         <v>9</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>80</v>
@@ -1353,10 +1365,10 @@
         <v>84</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
@@ -1364,10 +1376,10 @@
         <v>42</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>83</v>
@@ -1376,10 +1388,10 @@
         <v>84</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
         <v>45</v>
       </c>
@@ -1388,10 +1400,10 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="4" t="s">
         <v>54</v>
       </c>
@@ -1399,11 +1411,11 @@
         <v>53</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="15"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
         <v>64</v>
       </c>
@@ -1413,11 +1425,9 @@
       <c r="C35" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D35" s="17"/>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="4" t="s">
         <v>48</v>
       </c>
@@ -1426,10 +1436,10 @@
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="4" t="s">
         <v>50</v>
       </c>
@@ -1437,71 +1447,13 @@
         <v>87</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>88</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H40" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H41" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H42" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H43" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H44" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H46" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H47" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H48" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H49" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H50" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H51" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1509,6 +1461,89 @@
     <sortCondition ref="B2:B37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/devel/Type source files/Sample_types.xlsx
+++ b/devel/Type source files/Sample_types.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anette\Dropbox\Type source files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,18 +17,18 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="119">
   <si>
     <t>AMM</t>
   </si>
@@ -840,7 +845,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -851,23 +856,23 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B22" sqref="B22:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="3"/>
-    <col min="2" max="2" width="31.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="60.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="31.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="60.28515625" style="3" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="124.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="3"/>
+    <col min="7" max="7" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="124.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -893,7 +898,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -916,7 +921,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -928,7 +933,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -951,7 +956,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -963,7 +968,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -975,7 +980,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -992,7 +997,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>72</v>
       </c>
@@ -1006,7 +1011,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>57</v>
       </c>
@@ -1021,7 +1026,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1036,7 +1041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -1050,7 +1055,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1062,7 +1067,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>66</v>
       </c>
@@ -1074,7 +1079,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
@@ -1091,7 +1096,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1103,7 +1108,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>62</v>
       </c>
@@ -1118,7 +1123,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>51</v>
       </c>
@@ -1135,7 +1140,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
@@ -1152,7 +1157,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
@@ -1172,7 +1177,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
@@ -1189,22 +1194,20 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="C21" s="4"/>
       <c r="D21" s="17"/>
       <c r="H21" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>61</v>
       </c>
@@ -1221,7 +1224,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
@@ -1235,7 +1238,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>47</v>
       </c>
@@ -1252,7 +1255,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -1264,7 +1267,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
@@ -1281,7 +1284,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>35</v>
       </c>
@@ -1295,7 +1298,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>37</v>
       </c>
@@ -1315,7 +1318,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
@@ -1327,7 +1330,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>43</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
@@ -1391,7 +1394,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>45</v>
       </c>
@@ -1403,7 +1406,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>54</v>
       </c>
@@ -1415,7 +1418,7 @@
       </c>
       <c r="D34" s="15"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>64</v>
       </c>
@@ -1427,7 +1430,7 @@
       </c>
       <c r="D35" s="17"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>48</v>
       </c>
@@ -1439,7 +1442,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>50</v>
       </c>
@@ -1478,62 +1481,62 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>115</v>
       </c>

--- a/devel/Type source files/Sample_types.xlsx
+++ b/devel/Type source files/Sample_types.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anette\Dropbox\Type source files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15540"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="15040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,18 +12,18 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="120">
   <si>
     <t>AMM</t>
   </si>
@@ -405,6 +400,9 @@
   </si>
   <si>
     <t>replace with existing "sample type" i DB (CONRAD)</t>
+  </si>
+  <si>
+    <t>Ice corer 14 cm; Ice corer 9 cm; Suction pump; Slurp gun; Bottle</t>
   </si>
 </sst>
 </file>
@@ -845,7 +843,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -856,23 +854,23 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B24"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="31.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="60.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="3"/>
+    <col min="2" max="2" width="31.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="60.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="124.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="7" max="7" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="124.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="5" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -898,7 +896,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -921,7 +919,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -933,7 +931,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -956,7 +954,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -968,7 +966,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -980,7 +978,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -997,7 +995,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>72</v>
       </c>
@@ -1011,7 +1009,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>57</v>
       </c>
@@ -1026,7 +1024,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1041,7 +1039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -1055,7 +1053,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1067,7 +1065,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="10" t="s">
         <v>66</v>
       </c>
@@ -1079,7 +1077,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
@@ -1096,7 +1094,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1108,7 +1106,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
         <v>62</v>
       </c>
@@ -1123,7 +1121,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>51</v>
       </c>
@@ -1140,7 +1138,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
@@ -1157,7 +1155,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
@@ -1168,7 +1166,7 @@
         <v>102</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>82</v>
@@ -1177,7 +1175,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
@@ -1194,7 +1192,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
         <v>68</v>
       </c>
@@ -1207,7 +1205,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
         <v>61</v>
       </c>
@@ -1224,7 +1222,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
@@ -1238,7 +1236,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="4" t="s">
         <v>47</v>
       </c>
@@ -1255,7 +1253,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -1267,7 +1265,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
@@ -1284,7 +1282,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="4" t="s">
         <v>35</v>
       </c>
@@ -1298,7 +1296,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="4" t="s">
         <v>37</v>
       </c>
@@ -1318,7 +1316,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
@@ -1330,7 +1328,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="4" t="s">
         <v>43</v>
       </c>
@@ -1348,7 +1346,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
@@ -1371,7 +1369,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
@@ -1394,7 +1392,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
         <v>45</v>
       </c>
@@ -1406,7 +1404,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="4" t="s">
         <v>54</v>
       </c>
@@ -1418,7 +1416,7 @@
       </c>
       <c r="D34" s="15"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
         <v>64</v>
       </c>
@@ -1430,7 +1428,7 @@
       </c>
       <c r="D35" s="17"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="4" t="s">
         <v>48</v>
       </c>
@@ -1442,7 +1440,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="4" t="s">
         <v>50</v>
       </c>
@@ -1481,62 +1479,62 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="4" t="s">
         <v>115</v>
       </c>

--- a/devel/Type source files/Sample_types.xlsx
+++ b/devel/Type source files/Sample_types.xlsx
@@ -1,29 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikko\Dropbox\Workstuff\R\R packages\MarineDatabase\devel\Type source files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="15040"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25116" windowHeight="15036"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="instructions for Conrad" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="121">
   <si>
     <t>AMM</t>
   </si>
@@ -315,9 +320,6 @@
     <t>WP2 64 μm; WP2 150 µm; WP2 200 µm; WP2 500 µm; WP3 1000 μm;  Multinet 200 µm; Multinet 64 µm; MIK-net 1500 µm</t>
   </si>
   <si>
-    <t>Niskin bottle; Ice corer 14 cm; Ice corer 9 cm; Bucket; Bottle ; Go-Flo</t>
-  </si>
-  <si>
     <t>Ice corer 14 cm; Ice corer 9 cm; Suction pump</t>
   </si>
   <si>
@@ -402,7 +404,13 @@
     <t>replace with existing "sample type" i DB (CONRAD)</t>
   </si>
   <si>
-    <t>Ice corer 14 cm; Ice corer 9 cm; Suction pump; Slurp gun; Bottle</t>
+    <t>Ice corer 18 cm; Ice corer 14 cm; Ice corer 12 cm; Ice corer 9 cm; Suction pump; Slurp gun; Bottle</t>
+  </si>
+  <si>
+    <t>Niskin bottle; Ice corer 14 cm; Ice corer 9 cm; Bucket; Bottle; Go-Flo</t>
+  </si>
+  <si>
+    <t>Niskin bottle</t>
   </si>
 </sst>
 </file>
@@ -843,7 +851,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -854,23 +862,23 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="3"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
     <col min="2" max="2" width="31.33203125" style="6" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="13" customWidth="1"/>
     <col min="4" max="4" width="60.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="124.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="3"/>
+    <col min="7" max="7" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="124.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -878,7 +886,7 @@
         <v>56</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>71</v>
@@ -893,10 +901,10 @@
         <v>77</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -904,10 +912,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>78</v>
@@ -916,10 +924,10 @@
         <v>79</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -928,10 +936,10 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -939,10 +947,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>5</v>
@@ -951,10 +959,10 @@
         <v>79</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -963,10 +971,10 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -975,10 +983,10 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -992,10 +1000,10 @@
         <v>73</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>72</v>
       </c>
@@ -1009,7 +1017,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>57</v>
       </c>
@@ -1018,13 +1026,13 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="15" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1033,13 +1041,13 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="15" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -1047,13 +1055,13 @@
         <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1062,10 +1070,10 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>66</v>
       </c>
@@ -1074,10 +1082,10 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
@@ -1085,16 +1093,16 @@
         <v>20</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1103,10 +1111,10 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>62</v>
       </c>
@@ -1118,10 +1126,10 @@
       </c>
       <c r="D16" s="17"/>
       <c r="H16" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>51</v>
       </c>
@@ -1129,7 +1137,7 @@
         <v>52</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>52</v>
@@ -1138,7 +1146,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
@@ -1146,16 +1154,16 @@
         <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
@@ -1163,19 +1171,19 @@
         <v>26</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>82</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
@@ -1183,16 +1191,16 @@
         <v>28</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>68</v>
       </c>
@@ -1202,10 +1210,10 @@
       <c r="C21" s="4"/>
       <c r="D21" s="17"/>
       <c r="H21" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>61</v>
       </c>
@@ -1213,7 +1221,7 @@
         <v>60</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>85</v>
@@ -1222,7 +1230,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
@@ -1230,13 +1238,13 @@
         <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>47</v>
       </c>
@@ -1244,7 +1252,7 @@
         <v>58</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>86</v>
@@ -1253,7 +1261,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -1262,10 +1270,10 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
@@ -1273,16 +1281,16 @@
         <v>34</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>35</v>
       </c>
@@ -1290,13 +1298,13 @@
         <v>36</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>37</v>
       </c>
@@ -1304,10 +1312,10 @@
         <v>38</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>81</v>
@@ -1316,7 +1324,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
@@ -1325,10 +1333,10 @@
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>43</v>
       </c>
@@ -1336,17 +1344,19 @@
         <v>44</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="15"/>
+        <v>101</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>120</v>
+      </c>
       <c r="G30" s="3" t="s">
         <v>82</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
@@ -1354,10 +1364,10 @@
         <v>9</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>80</v>
@@ -1366,10 +1376,10 @@
         <v>84</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
@@ -1377,10 +1387,10 @@
         <v>42</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>83</v>
@@ -1389,10 +1399,10 @@
         <v>84</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>45</v>
       </c>
@@ -1401,10 +1411,10 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>54</v>
       </c>
@@ -1412,11 +1422,11 @@
         <v>53</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="15"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>64</v>
       </c>
@@ -1428,7 +1438,7 @@
       </c>
       <c r="D35" s="17"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>48</v>
       </c>
@@ -1440,7 +1450,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>50</v>
       </c>
@@ -1448,7 +1458,7 @@
         <v>87</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>88</v>
@@ -1479,64 +1489,64 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="4"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/devel/Type source files/Sample_types.xlsx
+++ b/devel/Type source files/Sample_types.xlsx
@@ -5,17 +5,17 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikko\Dropbox\Workstuff\R\R packages\MarineDatabase\devel\Type source files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anette\Dropbox\Type source files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25116" windowHeight="15036"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25110" windowHeight="15030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="instructions for Conrad" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -285,6 +285,111 @@
     <t>mg/m3</t>
   </si>
   <si>
+    <t>WP2 64 μm; WP2 150 µm; WP2 200 µm; WP2 500 µm; WP3 1000 μm;  Multinet 200 µm; Multinet 64 µm</t>
+  </si>
+  <si>
+    <t>Zooplankton taxonomy</t>
+  </si>
+  <si>
+    <t>Swim-net 200 µm</t>
+  </si>
+  <si>
+    <t>WP2 64 μm; WP2 150 µm; WP2 200 µm; WP2 500 µm; WP3 1000 μm;  Multinet 200 µm; Multinet 64 µm; MIK-net 1500 µm</t>
+  </si>
+  <si>
+    <t>Ice corer 14 cm; Ice corer 9 cm; Suction pump</t>
+  </si>
+  <si>
+    <t>Suction pump</t>
+  </si>
+  <si>
+    <t>Niskin bottle; Bucket; Go-Flo</t>
+  </si>
+  <si>
+    <t>O18</t>
+  </si>
+  <si>
+    <t>Iodine</t>
+  </si>
+  <si>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>HPLC</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>Oceanography</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Biogeochemistry</t>
+  </si>
+  <si>
+    <t>Taxonomy / Abundance</t>
+  </si>
+  <si>
+    <t>Bsi; Bsi</t>
+  </si>
+  <si>
+    <t>POC/N; POC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abundance (Mesooplankton taxonomy; Macrozooplankton taxonomy; Phytoplankton taxonomy; Ice algal taxonomy; Ice fauna taxonomy; </t>
+  </si>
+  <si>
+    <t>abundance (same as above)</t>
+  </si>
+  <si>
+    <t>taxonomy (most likely Phytoplankton taxonomy</t>
+  </si>
+  <si>
+    <t>taxonomy; phyto tax</t>
+  </si>
+  <si>
+    <t>lipid pictures; Pictures; Picture; lipid</t>
+  </si>
+  <si>
+    <t>experiments</t>
+  </si>
+  <si>
+    <t>Chlorophyll; Chl a/Phaeopigments</t>
+  </si>
+  <si>
+    <t>Ice algae</t>
+  </si>
+  <si>
+    <t>OA experiment</t>
+  </si>
+  <si>
+    <t>abundance/biomass (same as above)</t>
+  </si>
+  <si>
+    <t>dietary analyse</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>sample-type_group (CONRAD)</t>
+  </si>
+  <si>
+    <t>replace with existing "sample type" i DB (CONRAD)</t>
+  </si>
+  <si>
+    <t>Ice corer 18 cm; Ice corer 14 cm; Ice corer 12 cm; Ice corer 9 cm; Suction pump; Slurp gun; Bottle</t>
+  </si>
+  <si>
+    <t>Niskin bottle; Ice corer 14 cm; Ice corer 9 cm; Bucket; Bottle; Go-Flo</t>
+  </si>
+  <si>
+    <t>Niskin bottle</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">MIK 1500 </t>
     </r>
@@ -295,129 +400,15 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>µ</t>
+      <t>µm</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="8.8000000000000007"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>m</t>
-    </r>
-  </si>
-  <si>
-    <t>WP2 64 μm; WP2 150 µm; WP2 200 µm; WP2 500 µm; WP3 1000 μm;  Multinet 200 µm; Multinet 64 µm</t>
-  </si>
-  <si>
-    <t>Zooplankton taxonomy</t>
-  </si>
-  <si>
-    <t>Swim-net 200 µm</t>
-  </si>
-  <si>
-    <t>WP2 64 μm; WP2 150 µm; WP2 200 µm; WP2 500 µm; WP3 1000 μm;  Multinet 200 µm; Multinet 64 µm; MIK-net 1500 µm</t>
-  </si>
-  <si>
-    <t>Ice corer 14 cm; Ice corer 9 cm; Suction pump</t>
-  </si>
-  <si>
-    <t>Suction pump</t>
-  </si>
-  <si>
-    <t>Niskin bottle; Bucket; Go-Flo</t>
-  </si>
-  <si>
-    <t>O18</t>
-  </si>
-  <si>
-    <t>Iodine</t>
-  </si>
-  <si>
-    <t>Ammonia</t>
-  </si>
-  <si>
-    <t>HPLC</t>
-  </si>
-  <si>
-    <t>Genetic</t>
-  </si>
-  <si>
-    <t>Oceanography</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Biogeochemistry</t>
-  </si>
-  <si>
-    <t>Taxonomy / Abundance</t>
-  </si>
-  <si>
-    <t>Bsi; Bsi</t>
-  </si>
-  <si>
-    <t>POC/N; POC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abundance (Mesooplankton taxonomy; Macrozooplankton taxonomy; Phytoplankton taxonomy; Ice algal taxonomy; Ice fauna taxonomy; </t>
-  </si>
-  <si>
-    <t>abundance (same as above)</t>
-  </si>
-  <si>
-    <t>taxonomy (most likely Phytoplankton taxonomy</t>
-  </si>
-  <si>
-    <t>taxonomy; phyto tax</t>
-  </si>
-  <si>
-    <t>lipid pictures; Pictures; Picture; lipid</t>
-  </si>
-  <si>
-    <t>experiments</t>
-  </si>
-  <si>
-    <t>Chlorophyll; Chl a/Phaeopigments</t>
-  </si>
-  <si>
-    <t>Ice algae</t>
-  </si>
-  <si>
-    <t>OA experiment</t>
-  </si>
-  <si>
-    <t>abundance/biomass (same as above)</t>
-  </si>
-  <si>
-    <t>dietary analyse</t>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
-    <t>sample-type_group (CONRAD)</t>
-  </si>
-  <si>
-    <t>replace with existing "sample type" i DB (CONRAD)</t>
-  </si>
-  <si>
-    <t>Ice corer 18 cm; Ice corer 14 cm; Ice corer 12 cm; Ice corer 9 cm; Suction pump; Slurp gun; Bottle</t>
-  </si>
-  <si>
-    <t>Niskin bottle; Ice corer 14 cm; Ice corer 9 cm; Bucket; Bottle; Go-Flo</t>
-  </si>
-  <si>
-    <t>Niskin bottle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,12 +467,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8.8000000000000007"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="10"/>
@@ -530,12 +515,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -549,10 +540,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -562,21 +553,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -862,23 +858,23 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3"/>
-    <col min="2" max="2" width="31.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="60.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="31.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="60.28515625" style="3" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="124.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="3"/>
+    <col min="7" max="7" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="124.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -886,7 +882,7 @@
         <v>56</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>71</v>
@@ -901,10 +897,10 @@
         <v>77</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -912,10 +908,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>78</v>
@@ -924,10 +920,10 @@
         <v>79</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -936,10 +932,10 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -947,10 +943,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>5</v>
@@ -959,10 +955,10 @@
         <v>79</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -971,10 +967,10 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -983,10 +979,10 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1000,10 +996,10 @@
         <v>73</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>72</v>
       </c>
@@ -1017,7 +1013,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>57</v>
       </c>
@@ -1026,13 +1022,13 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1041,13 +1037,13 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -1055,13 +1051,13 @@
         <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1070,10 +1066,10 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>66</v>
       </c>
@@ -1082,10 +1078,10 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
@@ -1093,16 +1089,16 @@
         <v>20</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1111,10 +1107,10 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>62</v>
       </c>
@@ -1126,27 +1122,30 @@
       </c>
       <c r="D16" s="17"/>
       <c r="H16" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
@@ -1154,16 +1153,16 @@
         <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
@@ -1171,19 +1170,19 @@
         <v>26</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>82</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
@@ -1191,16 +1190,16 @@
         <v>28</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>68</v>
       </c>
@@ -1210,10 +1209,10 @@
       <c r="C21" s="4"/>
       <c r="D21" s="17"/>
       <c r="H21" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>61</v>
       </c>
@@ -1221,16 +1220,16 @@
         <v>60</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
@@ -1238,13 +1237,13 @@
         <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>47</v>
       </c>
@@ -1252,16 +1251,16 @@
         <v>58</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -1270,27 +1269,30 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="C26" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>35</v>
       </c>
@@ -1298,13 +1300,13 @@
         <v>36</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>37</v>
       </c>
@@ -1312,10 +1314,10 @@
         <v>38</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>81</v>
@@ -1324,7 +1326,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
@@ -1333,30 +1335,32 @@
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="20" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="G30" s="3" t="s">
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H30" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
@@ -1364,10 +1368,10 @@
         <v>9</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>80</v>
@@ -1376,10 +1380,10 @@
         <v>84</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
@@ -1387,10 +1391,10 @@
         <v>42</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>83</v>
@@ -1399,10 +1403,10 @@
         <v>84</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>45</v>
       </c>
@@ -1411,10 +1415,10 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>54</v>
       </c>
@@ -1422,11 +1426,11 @@
         <v>53</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="15"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>64</v>
       </c>
@@ -1438,7 +1442,7 @@
       </c>
       <c r="D35" s="17"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>48</v>
       </c>
@@ -1447,21 +1451,21 @@
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>87</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>88</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>82</v>
@@ -1489,64 +1493,64 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
